--- a/public/gifts_second.xlsx
+++ b/public/gifts_second.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenliao\AMC_app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BB2ADE-2660-4BD9-90F2-58B9DF1FBD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B95D530-86BB-4953-9A57-AEE69BBCAB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="1275" windowWidth="21795" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
